--- a/Input/INPUT_JOBNAME.xlsx
+++ b/Input/INPUT_JOBNAME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Prog\JOBNAME_PDF\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PROGRAMAS\JOBNAME_PDF\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387A3809-2049-4A79-B5D9-EAA6F0606800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA3DF1D-BBB3-4351-A5B7-F5067212C752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{24A42E3D-DE08-4E78-ABED-6E204CBFB3BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24A42E3D-DE08-4E78-ABED-6E204CBFB3BE}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLA" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>JOBNAME</t>
   </si>
@@ -64,12 +64,18 @@
   <si>
     <t>MONTHLY</t>
   </si>
+  <si>
+    <t>Frecuencia_Ejecucion</t>
+  </si>
+  <si>
+    <t>JSONNAME</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,12 +98,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -114,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -137,18 +161,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A55428-F3F4-441D-BB9B-79E2A4ECEB37}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,6 +572,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -495,55 +580,984 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67FE60E-FA19-41D0-BD24-2A7275134FB7}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="30.77734375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="25.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="11"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="11"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="11"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="11"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="11"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="11"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="11"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="11"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="11"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="11"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="11"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="11"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="11"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="11"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="11"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="11"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="11"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="11"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="11"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="11"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="11"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -553,12 +1567,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,15 +1705,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEB8A2B0-3173-4182-B356-860AA800E2E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43DCF91A-EA36-448D-90FC-414B72C97AB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d56d938d-481e-4df9-85c1-6e848cb19aa7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -726,17 +1748,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43DCF91A-EA36-448D-90FC-414B72C97AB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEB8A2B0-3173-4182-B356-860AA800E2E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d56d938d-481e-4df9-85c1-6e848cb19aa7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>